--- a/biology/Botanique/Syntrichia_ruralis/Syntrichia_ruralis.xlsx
+++ b/biology/Botanique/Syntrichia_ruralis/Syntrichia_ruralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syntrichia ruralis est une espèce de bryophytes (mousses) de la famille des Pottiaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (10 janvier 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (10 janvier 2018) :
 variété Syntrichia ruralis var. densiretis (Venturi) J.J. Amann
 variété Syntrichia ruralis var. epilosa (Venturi) J.J. Amann
 variété Syntrichia ruralis var. gigantea (Lesq.) R.H. Zander
 variété Syntrichia ruralis var. gracilis (C.E.O. Jensen) R.H. Zander
 variété Syntrichia ruralis var. subpapillosissima (R.B. Pierrot ex W.A. Kramer) R.H. Zander
-Selon Tropicos                                           (10 janvier 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Syntrichia ruralis subsp. calcicolens (W.A. Kramer) Düll
 sous-espèce Syntrichia ruralis subsp. hirsuta (Venturi) Düll
 sous-espèce Syntrichia ruralis subsp. ruraliformis (Besch.) Düll
